--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,67 +66,67 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.5 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-1.6700127099477178</t>
+    <t>5.35 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>-2.8499999999999996</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.4913961945540344</t>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>1.7999999999999998</t>
+  </si>
+  <si>
+    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.149999999999993</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>7.7</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.818077851887707</t>
-  </si>
-  <si>
-    <t>-2 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>0.6955939072173343</t>
-  </si>
-  <si>
-    <t>0.8882090831603455</t>
-  </si>
-  <si>
-    <t>0.7739184498979507</t>
-  </si>
-  <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-100.37656758184467</t>
+    <t>104.95 - y_1</t>
+  </si>
+  <si>
+    <t>-104.95</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41356181709168294</t>
-  </si>
-  <si>
-    <t>0.8262984630163996</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-0.5122616766064048</t>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996 - y_2</t>
+  </si>
+  <si>
+    <t>-3.5999999999999996</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.07636940678826719</t>
-  </si>
-  <si>
-    <t>0.6148357724230905</t>
-  </si>
-  <si>
-    <t>0.8896027911086096</t>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>2.9</t>
   </si>
   <si>
     <t>x_1</t>
@@ -141,40 +141,37 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.01715930759299</t>
-  </si>
-  <si>
-    <t>16.611275692327354</t>
-  </si>
-  <si>
-    <t>100.37656758184467</t>
-  </si>
-  <si>
-    <t>0.5122616766064048</t>
+    <t>53.35</t>
+  </si>
+  <si>
+    <t>19.7</t>
+  </si>
+  <si>
+    <t>104.95</t>
+  </si>
+  <si>
+    <t>3.5999999999999996</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.9221656225376487</t>
-  </si>
-  <si>
-    <t>-1.320443481818044</t>
+    <t>4.14</t>
+  </si>
+  <si>
+    <t>-0.78</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>1.2260815501020494</t>
-  </si>
-  <si>
-    <t>1.321755349693852</t>
-  </si>
-  <si>
-    <t>-0.5</t>
-  </si>
-  <si>
-    <t>-0.15908267747486016</t>
+    <t>11.900000000000002</t>
+  </si>
+  <si>
+    <t>22.1</t>
+  </si>
+  <si>
+    <t>-9.3</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,47 +645,47 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +792,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -813,7 +810,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -66,67 +66,64 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>5.35 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>-2.8499999999999996</t>
+    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>0.7499999999999831</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.73</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>1.7999999999999998</t>
-  </si>
-  <si>
-    <t>2.1499999999999932 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-4.149999999999993</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>7.7</t>
+    <t>0.77</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>104.95 - y_1</t>
-  </si>
-  <si>
-    <t>-104.95</t>
+    <t>7.9</t>
+  </si>
+  <si>
+    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-8.549999999999994</t>
+  </si>
+  <si>
+    <t>0.46</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>104.6 - y_1</t>
+  </si>
+  <si>
+    <t>-104.6</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996 - y_2</t>
-  </si>
-  <si>
-    <t>-3.5999999999999996</t>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-2.05 - y_2</t>
+  </si>
+  <si>
+    <t>-2.05</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>2.9</t>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>7.5</t>
   </si>
   <si>
     <t>x_1</t>
@@ -141,37 +138,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>53.35</t>
-  </si>
-  <si>
-    <t>19.7</t>
-  </si>
-  <si>
-    <t>104.95</t>
-  </si>
-  <si>
-    <t>3.5999999999999996</t>
+    <t>52.150000000000006</t>
+  </si>
+  <si>
+    <t>20.25</t>
+  </si>
+  <si>
+    <t>104.6</t>
+  </si>
+  <si>
+    <t>2.05</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>4.14</t>
-  </si>
-  <si>
-    <t>-0.78</t>
+    <t>3.64</t>
+  </si>
+  <si>
+    <t>-0.050000000000000044</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>11.900000000000002</t>
-  </si>
-  <si>
-    <t>22.1</t>
-  </si>
-  <si>
-    <t>-9.3</t>
+    <t>-2.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>-0.5</t>
+  </si>
+  <si>
+    <t>-4.5</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -645,47 +645,47 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -703,30 +703,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
-      </c>
-      <c r="D1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -744,17 +744,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -772,27 +772,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/linear/ex9.1.10/Experimentos_Generador/ex9.1.10(Linear)__M_Stationarygenerator_alpha_zero.xlsx
@@ -66,64 +66,64 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>1.7500000000000169 - 2x_1 + y_1 - y_2</t>
-  </si>
-  <si>
-    <t>0.7499999999999831</t>
+    <t>1.1000000000000056 - 2x_1 + y_1 - y_2</t>
+  </si>
+  <si>
+    <t>1.3999999999999944</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.77</t>
+    <t>0.92</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>7.9</t>
-  </si>
-  <si>
-    <t>6.549999999999994 + x_1 - 3x_2 + y_2</t>
-  </si>
-  <si>
-    <t>-8.549999999999994</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>104.6 - y_1</t>
-  </si>
-  <si>
-    <t>-104.6</t>
+    <t>0.8999999999999999</t>
+  </si>
+  <si>
+    <t>2.5499999999999927 + x_1 - 3x_2 + y_2</t>
+  </si>
+  <si>
+    <t>-4.549999999999993</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>102.2 - y_1</t>
+  </si>
+  <si>
+    <t>-102.2</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>-2.05 - y_2</t>
-  </si>
-  <si>
-    <t>-2.05</t>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>-0.2 - y_2</t>
+  </si>
+  <si>
+    <t>-0.2</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>7.5</t>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>x_1</t>
@@ -138,40 +138,40 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>52.150000000000006</t>
-  </si>
-  <si>
-    <t>20.25</t>
-  </si>
-  <si>
-    <t>104.6</t>
-  </si>
-  <si>
-    <t>2.05</t>
+    <t>51.550000000000004</t>
+  </si>
+  <si>
+    <t>18.099999999999998</t>
+  </si>
+  <si>
+    <t>102.2</t>
+  </si>
+  <si>
+    <t>0.2</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>3.64</t>
-  </si>
-  <si>
-    <t>-0.050000000000000044</t>
+    <t>3.57</t>
+  </si>
+  <si>
+    <t>0.31000000000000005</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-2.5</t>
-  </si>
-  <si>
-    <t>12.5</t>
+    <t>-4.5</t>
+  </si>
+  <si>
+    <t>18.5</t>
   </si>
   <si>
     <t>-0.5</t>
   </si>
   <si>
-    <t>-4.5</t>
+    <t>-6.5</t>
   </si>
   <si>
     <t>vec_alpha</t>
